--- a/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20240215/Plate_1_20240215_TLR7_2.xlsx
+++ b/Synthetic_Myddosome_Manuscript/ELISA/Plate_1_20240215/Plate_1_20240215_TLR7_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Elke\ELISA\syn Mydd\Plate_1_20240123\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TAYLOR-LAB/Synthetic Myddosome Paper/6_Manuscript/Source files/Figure 1/1D/Plate_1_20240215/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C2F43A-B99C-4F55-853E-BCF3882A7EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE26CE-8A9D-2E42-BBF4-233B5752C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="4780" windowWidth="26080" windowHeight="13900" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="STIM_CONCENTRATION" sheetId="5" r:id="rId5"/>
     <sheet name="CONDITIONS" sheetId="6" r:id="rId6"/>
     <sheet name="DILUTIONS" sheetId="7" r:id="rId7"/>
-    <sheet name="Info" sheetId="8" r:id="rId8"/>
+    <sheet name="PATHWAY" sheetId="9" r:id="rId8"/>
+    <sheet name="STIMULANT" sheetId="10" r:id="rId9"/>
+    <sheet name="Info" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="23">
   <si>
     <t>250</t>
   </si>
@@ -91,12 +93,18 @@
   <si>
     <t>CONCENTRATION is 50ng/ml</t>
   </si>
+  <si>
+    <t>TLR7</t>
+  </si>
+  <si>
+    <t>R848</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -114,6 +122,20 @@
       <color rgb="FF999999"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -166,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,9 +207,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,13 +431,13 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5">
         <v>3.49E-2</v>
       </c>
@@ -449,7 +475,7 @@
         <v>3.0608</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>7.0999999999999994E-2</v>
       </c>
@@ -487,7 +513,7 @@
         <v>2.2736999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>8.2600000000000007E-2</v>
       </c>
@@ -525,7 +551,7 @@
         <v>1.2891999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>2.18E-2</v>
       </c>
@@ -563,7 +589,7 @@
         <v>0.64470000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5.09999999999999E-3</v>
       </c>
@@ -601,7 +627,7 @@
         <v>0.32669999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>8.3000000000000001E-3</v>
       </c>
@@ -639,7 +665,7 @@
         <v>0.1552</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1.38E-2</v>
       </c>
@@ -677,7 +703,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>9.2999999999999992E-3</v>
       </c>
@@ -730,6 +756,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
@@ -741,9 +785,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -781,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -857,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -895,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -933,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1015,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1053,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1063,9 +1107,9 @@
       <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1255,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1293,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1331,7 +1375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,9 +1429,9 @@
       <selection activeCell="K1" sqref="J1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1501,7 +1545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1704,12 +1748,12 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1747,7 +1791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1861,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2029,13 +2073,13 @@
       <selection activeCell="G3" sqref="G3:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2073,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2111,7 +2155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +2193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2187,7 +2231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2263,7 +2307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2301,7 +2345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2352,16 +2396,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2399,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +2595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -2589,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2671,19 +2715,639 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A41939-BC80-4BC3-A2E3-9C41454FFAA3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5D6EC-36EB-1A4F-9D5A-CB1E5B624AD0}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFCB2F2-063B-2643-9572-46298444E00D}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>